--- a/data/pca/factorExposure/factorExposure_2012-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-05-11.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01724528906940868</v>
+        <v>-0.01868593829065251</v>
       </c>
       <c r="C2">
-        <v>-0.03544166530341962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02670169676452737</v>
+      </c>
+      <c r="D2">
+        <v>0.007295094608432953</v>
+      </c>
+      <c r="E2">
+        <v>0.02389757647076725</v>
+      </c>
+      <c r="F2">
+        <v>0.01066549008255297</v>
+      </c>
+      <c r="G2">
+        <v>-0.01358921107468915</v>
+      </c>
+      <c r="H2">
+        <v>0.04709725656833336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07191873613252109</v>
+        <v>-0.08195444332078675</v>
       </c>
       <c r="C4">
-        <v>-0.0618095462441741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04032734864291162</v>
+      </c>
+      <c r="D4">
+        <v>-0.0699387160249169</v>
+      </c>
+      <c r="E4">
+        <v>-5.705096067284813e-05</v>
+      </c>
+      <c r="F4">
+        <v>0.03333978265752435</v>
+      </c>
+      <c r="G4">
+        <v>0.003313889511640102</v>
+      </c>
+      <c r="H4">
+        <v>-0.03304788544600683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.09943200130218589</v>
+        <v>-0.1171641981598575</v>
       </c>
       <c r="C6">
-        <v>-0.06540575722342258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04112195482729023</v>
+      </c>
+      <c r="D6">
+        <v>-0.01087048460269414</v>
+      </c>
+      <c r="E6">
+        <v>-0.003130071883611538</v>
+      </c>
+      <c r="F6">
+        <v>0.05949213263850846</v>
+      </c>
+      <c r="G6">
+        <v>-0.01870177892344599</v>
+      </c>
+      <c r="H6">
+        <v>0.07288618969593456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04821121211362888</v>
+        <v>-0.06037747497460386</v>
       </c>
       <c r="C7">
-        <v>-0.03183035268814223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02205026077042209</v>
+      </c>
+      <c r="D7">
+        <v>-0.04160965945878679</v>
+      </c>
+      <c r="E7">
+        <v>0.02299590488946771</v>
+      </c>
+      <c r="F7">
+        <v>0.03489224744256613</v>
+      </c>
+      <c r="G7">
+        <v>0.04228917635773721</v>
+      </c>
+      <c r="H7">
+        <v>-0.02525853069287935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03444342480618409</v>
+        <v>-0.03911930568999254</v>
       </c>
       <c r="C8">
-        <v>-0.02198436408627729</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.01257735584338502</v>
+      </c>
+      <c r="D8">
+        <v>-0.04097911877980468</v>
+      </c>
+      <c r="E8">
+        <v>0.006379168155043328</v>
+      </c>
+      <c r="F8">
+        <v>0.04694151195373934</v>
+      </c>
+      <c r="G8">
+        <v>-0.0248663258807072</v>
+      </c>
+      <c r="H8">
+        <v>0.02856849220773556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0666957059213803</v>
+        <v>-0.07562885067290109</v>
       </c>
       <c r="C9">
-        <v>-0.04845140754415068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02833428002804542</v>
+      </c>
+      <c r="D9">
+        <v>-0.06467415142306214</v>
+      </c>
+      <c r="E9">
+        <v>0.0198047134413334</v>
+      </c>
+      <c r="F9">
+        <v>0.04051924819130883</v>
+      </c>
+      <c r="G9">
+        <v>0.001373261632382903</v>
+      </c>
+      <c r="H9">
+        <v>-0.05265070752390007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02987652709521449</v>
+        <v>-0.03752763735986276</v>
       </c>
       <c r="C10">
-        <v>-0.03084393330249799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.03110214573844507</v>
+      </c>
+      <c r="D10">
+        <v>0.1772273026128639</v>
+      </c>
+      <c r="E10">
+        <v>0.04808751453661603</v>
+      </c>
+      <c r="F10">
+        <v>0.04034583974336893</v>
+      </c>
+      <c r="G10">
+        <v>0.03720579722506372</v>
+      </c>
+      <c r="H10">
+        <v>0.03182397329538888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06725667032129963</v>
+        <v>-0.07390946070828615</v>
       </c>
       <c r="C11">
-        <v>-0.0528731618256853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03089518952945302</v>
+      </c>
+      <c r="D11">
+        <v>-0.06195361657558564</v>
+      </c>
+      <c r="E11">
+        <v>-0.01372823629490591</v>
+      </c>
+      <c r="F11">
+        <v>0.02658788685002721</v>
+      </c>
+      <c r="G11">
+        <v>0.0111584651090381</v>
+      </c>
+      <c r="H11">
+        <v>-0.08593447307869227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05367931071705243</v>
+        <v>-0.06326552133766311</v>
       </c>
       <c r="C12">
-        <v>-0.053576920530639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03653598338565074</v>
+      </c>
+      <c r="D12">
+        <v>-0.04676142841389037</v>
+      </c>
+      <c r="E12">
+        <v>0.006121321372110771</v>
+      </c>
+      <c r="F12">
+        <v>0.02210407613553763</v>
+      </c>
+      <c r="G12">
+        <v>0.00429606987825501</v>
+      </c>
+      <c r="H12">
+        <v>-0.04791569433544578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05899664285353337</v>
+        <v>-0.06389991639982516</v>
       </c>
       <c r="C13">
-        <v>-0.04840919556547638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02816164627949772</v>
+      </c>
+      <c r="D13">
+        <v>-0.03943825216583571</v>
+      </c>
+      <c r="E13">
+        <v>-0.0003531302799871298</v>
+      </c>
+      <c r="F13">
+        <v>0.002262819799391465</v>
+      </c>
+      <c r="G13">
+        <v>0.006447695215536152</v>
+      </c>
+      <c r="H13">
+        <v>-0.05689138734999837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03140790702969788</v>
+        <v>-0.04151803632627094</v>
       </c>
       <c r="C14">
-        <v>-0.03224818727590232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0253519040551616</v>
+      </c>
+      <c r="D14">
+        <v>-0.006924093222223199</v>
+      </c>
+      <c r="E14">
+        <v>0.02219711560155659</v>
+      </c>
+      <c r="F14">
+        <v>0.01722293708692139</v>
+      </c>
+      <c r="G14">
+        <v>-0.006846636350759099</v>
+      </c>
+      <c r="H14">
+        <v>-0.05863132971028757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03877636610929931</v>
+        <v>-0.03994823952780421</v>
       </c>
       <c r="C15">
-        <v>-0.01122602621154568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.001831536984983076</v>
+      </c>
+      <c r="D15">
+        <v>-0.007383614208485987</v>
+      </c>
+      <c r="E15">
+        <v>0.04017172893196651</v>
+      </c>
+      <c r="F15">
+        <v>0.0009449752983870365</v>
+      </c>
+      <c r="G15">
+        <v>-0.02255547087327519</v>
+      </c>
+      <c r="H15">
+        <v>-0.0542578173856311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.05669987947272228</v>
+        <v>-0.06591604982212072</v>
       </c>
       <c r="C16">
-        <v>-0.045987923980869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02996334969559066</v>
+      </c>
+      <c r="D16">
+        <v>-0.06006846194993755</v>
+      </c>
+      <c r="E16">
+        <v>0.000217479380466095</v>
+      </c>
+      <c r="F16">
+        <v>0.02484884683450938</v>
+      </c>
+      <c r="G16">
+        <v>0.006118825352368588</v>
+      </c>
+      <c r="H16">
+        <v>-0.05495952533640141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06098374055184478</v>
+        <v>-0.06188412411012513</v>
       </c>
       <c r="C20">
-        <v>-0.03976142734932342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01822091881625763</v>
+      </c>
+      <c r="D20">
+        <v>-0.05184028624823617</v>
+      </c>
+      <c r="E20">
+        <v>0.01696631037267538</v>
+      </c>
+      <c r="F20">
+        <v>0.02543759300501219</v>
+      </c>
+      <c r="G20">
+        <v>0.00315246863336386</v>
+      </c>
+      <c r="H20">
+        <v>-0.04951998249841733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0245893405395878</v>
+        <v>-0.02451740608705629</v>
       </c>
       <c r="C21">
-        <v>-0.002784915027013667</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.005676357726015663</v>
+      </c>
+      <c r="D21">
+        <v>-0.03567807272508292</v>
+      </c>
+      <c r="E21">
+        <v>0.07582061215691237</v>
+      </c>
+      <c r="F21">
+        <v>-0.01663401106145751</v>
+      </c>
+      <c r="G21">
+        <v>-0.007138547992645974</v>
+      </c>
+      <c r="H21">
+        <v>0.02183987913540018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.06880012889410592</v>
+        <v>-0.06393200122391325</v>
       </c>
       <c r="C22">
-        <v>-0.06811225115307593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03976642107164539</v>
+      </c>
+      <c r="D22">
+        <v>-0.1008875763586988</v>
+      </c>
+      <c r="E22">
+        <v>0.6116646374031549</v>
+      </c>
+      <c r="F22">
+        <v>-0.1395895949004377</v>
+      </c>
+      <c r="G22">
+        <v>0.01970784788115781</v>
+      </c>
+      <c r="H22">
+        <v>0.130311635286975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.06981271161423036</v>
+        <v>-0.06458845532559025</v>
       </c>
       <c r="C23">
-        <v>-0.0673044401435931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03870597032970777</v>
+      </c>
+      <c r="D23">
+        <v>-0.1018235411317524</v>
+      </c>
+      <c r="E23">
+        <v>0.6107164043640189</v>
+      </c>
+      <c r="F23">
+        <v>-0.1387002534575054</v>
+      </c>
+      <c r="G23">
+        <v>0.01847243642300246</v>
+      </c>
+      <c r="H23">
+        <v>0.125658019478144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.0659240979244396</v>
+        <v>-0.07583513162394698</v>
       </c>
       <c r="C24">
-        <v>-0.05499324534682442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03459821423285186</v>
+      </c>
+      <c r="D24">
+        <v>-0.06059020416709351</v>
+      </c>
+      <c r="E24">
+        <v>0.007158224482394322</v>
+      </c>
+      <c r="F24">
+        <v>0.03598115740957811</v>
+      </c>
+      <c r="G24">
+        <v>-0.0006935468699732823</v>
+      </c>
+      <c r="H24">
+        <v>-0.06095760590251131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.06632104512604105</v>
+        <v>-0.07374045311961928</v>
       </c>
       <c r="C25">
-        <v>-0.06083030619018807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03880329792241777</v>
+      </c>
+      <c r="D25">
+        <v>-0.05567920418854609</v>
+      </c>
+      <c r="E25">
+        <v>0.01001165502944964</v>
+      </c>
+      <c r="F25">
+        <v>0.03066727861495003</v>
+      </c>
+      <c r="G25">
+        <v>-0.01339359528688087</v>
+      </c>
+      <c r="H25">
+        <v>-0.06801956484986223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04068882128405439</v>
+        <v>-0.04505243484004937</v>
       </c>
       <c r="C26">
-        <v>-0.0124563908755001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.0035517554264077</v>
+      </c>
+      <c r="D26">
+        <v>-0.02823188362692069</v>
+      </c>
+      <c r="E26">
+        <v>0.03752714361918919</v>
+      </c>
+      <c r="F26">
+        <v>0.02485491588830955</v>
+      </c>
+      <c r="G26">
+        <v>0.007775943090989589</v>
+      </c>
+      <c r="H26">
+        <v>-0.06293807615470666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05680313924801438</v>
+        <v>-0.0736770777751469</v>
       </c>
       <c r="C28">
-        <v>-0.07015288074707762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.06688064638283191</v>
+      </c>
+      <c r="D28">
+        <v>0.3173133849186538</v>
+      </c>
+      <c r="E28">
+        <v>0.03906509235167452</v>
+      </c>
+      <c r="F28">
+        <v>0.05657840896380954</v>
+      </c>
+      <c r="G28">
+        <v>-0.02746797201182515</v>
+      </c>
+      <c r="H28">
+        <v>-0.002652599091796432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03852954368976407</v>
+        <v>-0.04688721485695891</v>
       </c>
       <c r="C29">
-        <v>-0.03173600517947963</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02323483243666368</v>
+      </c>
+      <c r="D29">
+        <v>-0.009478125832066191</v>
+      </c>
+      <c r="E29">
+        <v>0.04299689974224624</v>
+      </c>
+      <c r="F29">
+        <v>0.009309787057998356</v>
+      </c>
+      <c r="G29">
+        <v>0.01091521673213619</v>
+      </c>
+      <c r="H29">
+        <v>-0.0893529750874124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1169320222617656</v>
+        <v>-0.1309529974320313</v>
       </c>
       <c r="C30">
-        <v>-0.1016587962199951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06352467866451723</v>
+      </c>
+      <c r="D30">
+        <v>-0.08830888931481193</v>
+      </c>
+      <c r="E30">
+        <v>0.04076173265244326</v>
+      </c>
+      <c r="F30">
+        <v>0.007594141377861961</v>
+      </c>
+      <c r="G30">
+        <v>-0.0314894459536784</v>
+      </c>
+      <c r="H30">
+        <v>0.03598876691197198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03925092903675896</v>
+        <v>-0.04549920109843199</v>
       </c>
       <c r="C31">
-        <v>-0.02211203819382427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01197489529774815</v>
+      </c>
+      <c r="D31">
+        <v>-0.02542001676174818</v>
+      </c>
+      <c r="E31">
+        <v>0.02400511147828731</v>
+      </c>
+      <c r="F31">
+        <v>0.0135906472667985</v>
+      </c>
+      <c r="G31">
+        <v>0.02125574142725148</v>
+      </c>
+      <c r="H31">
+        <v>-0.07207050798501585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03458495114560198</v>
+        <v>-0.03397587438570166</v>
       </c>
       <c r="C32">
-        <v>-0.02443858209013598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01364044913249485</v>
+      </c>
+      <c r="D32">
+        <v>-0.01500979391838173</v>
+      </c>
+      <c r="E32">
+        <v>0.06977203845581226</v>
+      </c>
+      <c r="F32">
+        <v>-0.002460053734350322</v>
+      </c>
+      <c r="G32">
+        <v>-0.03231990281905028</v>
+      </c>
+      <c r="H32">
+        <v>-0.05778514916286474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.07485649440166393</v>
+        <v>-0.09271203665782035</v>
       </c>
       <c r="C33">
-        <v>-0.04810140526004495</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03021295990691347</v>
+      </c>
+      <c r="D33">
+        <v>-0.05817324968875905</v>
+      </c>
+      <c r="E33">
+        <v>0.01542903574621755</v>
+      </c>
+      <c r="F33">
+        <v>0.01025764598977335</v>
+      </c>
+      <c r="G33">
+        <v>0.01706080973342122</v>
+      </c>
+      <c r="H33">
+        <v>-0.0635287121246924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0531889254549047</v>
+        <v>-0.05820645525165496</v>
       </c>
       <c r="C34">
-        <v>-0.03461370060121632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01709416059539818</v>
+      </c>
+      <c r="D34">
+        <v>-0.05625473194906374</v>
+      </c>
+      <c r="E34">
+        <v>0.001174695059899486</v>
+      </c>
+      <c r="F34">
+        <v>0.02009505398395024</v>
+      </c>
+      <c r="G34">
+        <v>-0.003164281586476164</v>
+      </c>
+      <c r="H34">
+        <v>-0.04680379560362938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03632842950462813</v>
+        <v>-0.04057138556371848</v>
       </c>
       <c r="C35">
-        <v>-0.01366042141410244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005432304217312793</v>
+      </c>
+      <c r="D35">
+        <v>-0.01154522640595488</v>
+      </c>
+      <c r="E35">
+        <v>0.02095534571022131</v>
+      </c>
+      <c r="F35">
+        <v>-0.006578960705941272</v>
+      </c>
+      <c r="G35">
+        <v>0.0126668306439919</v>
+      </c>
+      <c r="H35">
+        <v>-0.03583108560547592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01871866144187641</v>
+        <v>-0.02515859973651435</v>
       </c>
       <c r="C36">
-        <v>-0.01563845231924652</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01152526387218329</v>
+      </c>
+      <c r="D36">
+        <v>-0.01742138746936733</v>
+      </c>
+      <c r="E36">
+        <v>0.03885111621092841</v>
+      </c>
+      <c r="F36">
+        <v>0.019265195567201</v>
+      </c>
+      <c r="G36">
+        <v>0.01398090001252021</v>
+      </c>
+      <c r="H36">
+        <v>-0.05471530775673146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0385136219553083</v>
+        <v>-0.04167199577485881</v>
       </c>
       <c r="C38">
-        <v>-0.006529280939884879</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.001451497328681689</v>
+      </c>
+      <c r="D38">
+        <v>-0.01962237944798866</v>
+      </c>
+      <c r="E38">
+        <v>0.05773580887174509</v>
+      </c>
+      <c r="F38">
+        <v>-0.006555206302555631</v>
+      </c>
+      <c r="G38">
+        <v>-0.01821982189286136</v>
+      </c>
+      <c r="H38">
+        <v>-0.02971863525148333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.08679051244367479</v>
+        <v>-0.1013993406804161</v>
       </c>
       <c r="C39">
-        <v>-0.08284069522176843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05531116110117006</v>
+      </c>
+      <c r="D39">
+        <v>-0.07257546328731221</v>
+      </c>
+      <c r="E39">
+        <v>-0.01300043888988059</v>
+      </c>
+      <c r="F39">
+        <v>0.01226322315087209</v>
+      </c>
+      <c r="G39">
+        <v>-0.01898612779064944</v>
+      </c>
+      <c r="H39">
+        <v>-0.04873943142669487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.06826339516184109</v>
+        <v>-0.07033113607477384</v>
       </c>
       <c r="C40">
-        <v>-0.05504510019375126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.0313774729573759</v>
+      </c>
+      <c r="D40">
+        <v>-0.006190938282769941</v>
+      </c>
+      <c r="E40">
+        <v>0.02043675047240879</v>
+      </c>
+      <c r="F40">
+        <v>-0.05267101762460429</v>
+      </c>
+      <c r="G40">
+        <v>-0.06684598165155253</v>
+      </c>
+      <c r="H40">
+        <v>0.09300354489538107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.03924837323661228</v>
+        <v>-0.0418900598109711</v>
       </c>
       <c r="C41">
-        <v>-0.01154416532685226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.002380750580702588</v>
+      </c>
+      <c r="D41">
+        <v>-0.03843303098435</v>
+      </c>
+      <c r="E41">
+        <v>0.005115652489187533</v>
+      </c>
+      <c r="F41">
+        <v>-0.01193103741303927</v>
+      </c>
+      <c r="G41">
+        <v>-0.01264455906155618</v>
+      </c>
+      <c r="H41">
+        <v>-0.04008957881525129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04387810831397928</v>
+        <v>-0.05265795458228073</v>
       </c>
       <c r="C43">
-        <v>-0.02968492312073048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01839975221193536</v>
+      </c>
+      <c r="D43">
+        <v>-0.02512067655192999</v>
+      </c>
+      <c r="E43">
+        <v>0.01809121455960539</v>
+      </c>
+      <c r="F43">
+        <v>0.009406411522948827</v>
+      </c>
+      <c r="G43">
+        <v>0.006254006967650438</v>
+      </c>
+      <c r="H43">
+        <v>-0.05345448858481212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.08886245093285404</v>
+        <v>-0.09038340316881967</v>
       </c>
       <c r="C44">
-        <v>-0.1006936677003995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06559857975094768</v>
+      </c>
+      <c r="D44">
+        <v>-0.05880466753481841</v>
+      </c>
+      <c r="E44">
+        <v>0.0963694431422147</v>
+      </c>
+      <c r="F44">
+        <v>0.04693602278473266</v>
+      </c>
+      <c r="G44">
+        <v>-0.031943928493148</v>
+      </c>
+      <c r="H44">
+        <v>0.007150072360709811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02454260293403085</v>
+        <v>-0.03060536783772519</v>
       </c>
       <c r="C46">
-        <v>-0.01459599795163304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009424216688843549</v>
+      </c>
+      <c r="D46">
+        <v>-0.03316463622730317</v>
+      </c>
+      <c r="E46">
+        <v>0.020430024013936</v>
+      </c>
+      <c r="F46">
+        <v>0.02167979011639451</v>
+      </c>
+      <c r="G46">
+        <v>-0.001158829917901083</v>
+      </c>
+      <c r="H46">
+        <v>-0.03820809229156749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02608117236332223</v>
+        <v>-0.03125151335862997</v>
       </c>
       <c r="C47">
-        <v>-0.02158152981796581</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01450762550507398</v>
+      </c>
+      <c r="D47">
+        <v>-0.01417853008753128</v>
+      </c>
+      <c r="E47">
+        <v>0.04968767278112775</v>
+      </c>
+      <c r="F47">
+        <v>0.01461813577411777</v>
+      </c>
+      <c r="G47">
+        <v>0.03582039386229964</v>
+      </c>
+      <c r="H47">
+        <v>-0.03505569553681971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02894200310760714</v>
+        <v>-0.03543551990515321</v>
       </c>
       <c r="C48">
-        <v>-0.02093772120114899</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01282350935029098</v>
+      </c>
+      <c r="D48">
+        <v>-0.03139473460170519</v>
+      </c>
+      <c r="E48">
+        <v>0.04061978284718061</v>
+      </c>
+      <c r="F48">
+        <v>0.007983001363445473</v>
+      </c>
+      <c r="G48">
+        <v>-0.005691689886322788</v>
+      </c>
+      <c r="H48">
+        <v>-0.05752601197022639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1534804399329775</v>
+        <v>-0.186634887145675</v>
       </c>
       <c r="C49">
-        <v>-0.09091686982304666</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05596146191315741</v>
+      </c>
+      <c r="D49">
+        <v>-0.01655565818968974</v>
+      </c>
+      <c r="E49">
+        <v>-0.1254117806408422</v>
+      </c>
+      <c r="F49">
+        <v>0.04311071757965193</v>
+      </c>
+      <c r="G49">
+        <v>0.04463977597362535</v>
+      </c>
+      <c r="H49">
+        <v>0.25839828704427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03504789598210573</v>
+        <v>-0.04432140294549739</v>
       </c>
       <c r="C50">
-        <v>-0.02685379894692155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01979598307910246</v>
+      </c>
+      <c r="D50">
+        <v>-0.03457161257244571</v>
+      </c>
+      <c r="E50">
+        <v>0.04876345845089449</v>
+      </c>
+      <c r="F50">
+        <v>0.02077436494711946</v>
+      </c>
+      <c r="G50">
+        <v>0.01631173656670062</v>
+      </c>
+      <c r="H50">
+        <v>-0.07635428336025625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02368080267816659</v>
+        <v>-0.0244970233638239</v>
       </c>
       <c r="C51">
-        <v>-0.01330123895110186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.007692839182294729</v>
+      </c>
+      <c r="D51">
+        <v>-0.02254006068170974</v>
+      </c>
+      <c r="E51">
+        <v>0.01273125030307188</v>
+      </c>
+      <c r="F51">
+        <v>0.01002604613836321</v>
+      </c>
+      <c r="G51">
+        <v>-0.004818653348133192</v>
+      </c>
+      <c r="H51">
+        <v>-0.006741786181116208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1407211657252699</v>
+        <v>-0.1603643624373667</v>
       </c>
       <c r="C53">
-        <v>-0.09288417494896777</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.0602141357916039</v>
+      </c>
+      <c r="D53">
+        <v>-0.01894523746022166</v>
+      </c>
+      <c r="E53">
+        <v>-0.03681078522546608</v>
+      </c>
+      <c r="F53">
+        <v>0.01485847791675653</v>
+      </c>
+      <c r="G53">
+        <v>0.004151848009590885</v>
+      </c>
+      <c r="H53">
+        <v>-0.1564758640043543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05378799539926432</v>
+        <v>-0.05727462324138615</v>
       </c>
       <c r="C54">
-        <v>-0.0271599934790235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01216718539490697</v>
+      </c>
+      <c r="D54">
+        <v>-0.0263468002896714</v>
+      </c>
+      <c r="E54">
+        <v>0.04731656749940637</v>
+      </c>
+      <c r="F54">
+        <v>0.01377555251555762</v>
+      </c>
+      <c r="G54">
+        <v>-0.007825118876728704</v>
+      </c>
+      <c r="H54">
+        <v>-0.0571096887905644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09267789747928323</v>
+        <v>-0.1010668629675916</v>
       </c>
       <c r="C55">
-        <v>-0.06312247584176069</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03974985556851964</v>
+      </c>
+      <c r="D55">
+        <v>-0.02480789731562803</v>
+      </c>
+      <c r="E55">
+        <v>0.009167142230328652</v>
+      </c>
+      <c r="F55">
+        <v>0.01653458641437074</v>
+      </c>
+      <c r="G55">
+        <v>-0.005273876036261621</v>
+      </c>
+      <c r="H55">
+        <v>-0.1449360016369548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1395308586610312</v>
+        <v>-0.1607509618335919</v>
       </c>
       <c r="C56">
-        <v>-0.1054076173595721</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07008266931218252</v>
+      </c>
+      <c r="D56">
+        <v>-0.01720462658197429</v>
+      </c>
+      <c r="E56">
+        <v>-0.03646280183175567</v>
+      </c>
+      <c r="F56">
+        <v>0.03437535178472809</v>
+      </c>
+      <c r="G56">
+        <v>0.01632370502536939</v>
+      </c>
+      <c r="H56">
+        <v>-0.1626719899417257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1180357851858971</v>
+        <v>-0.09774849090868948</v>
       </c>
       <c r="C58">
-        <v>-0.0221354253696211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.02204698295152526</v>
+      </c>
+      <c r="D58">
+        <v>-0.05532184654054468</v>
+      </c>
+      <c r="E58">
+        <v>0.1801765811582343</v>
+      </c>
+      <c r="F58">
+        <v>0.01386824175901819</v>
+      </c>
+      <c r="G58">
+        <v>0.04167808145662248</v>
+      </c>
+      <c r="H58">
+        <v>0.1900666434271649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.11278813432279</v>
+        <v>-0.1433746697371153</v>
       </c>
       <c r="C59">
-        <v>-0.08039291992044627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.07275752072912849</v>
+      </c>
+      <c r="D59">
+        <v>0.3624116932531539</v>
+      </c>
+      <c r="E59">
+        <v>0.04966900724100547</v>
+      </c>
+      <c r="F59">
+        <v>0.004365616993242716</v>
+      </c>
+      <c r="G59">
+        <v>0.03569400442584088</v>
+      </c>
+      <c r="H59">
+        <v>0.003430954810725805</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1891166779736784</v>
+        <v>-0.2252478632825101</v>
       </c>
       <c r="C60">
-        <v>-0.1172664222981289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.07575680367192404</v>
+      </c>
+      <c r="D60">
+        <v>-0.02725571537251589</v>
+      </c>
+      <c r="E60">
+        <v>-0.07185345838068502</v>
+      </c>
+      <c r="F60">
+        <v>0.05205621099701595</v>
+      </c>
+      <c r="G60">
+        <v>-0.02345851782925106</v>
+      </c>
+      <c r="H60">
+        <v>0.1650616928052761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07547242382389356</v>
+        <v>-0.08656701518985324</v>
       </c>
       <c r="C61">
-        <v>-0.06308047574280889</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.04148709883944941</v>
+      </c>
+      <c r="D61">
+        <v>-0.05333572173086944</v>
+      </c>
+      <c r="E61">
+        <v>-0.01630947751581729</v>
+      </c>
+      <c r="F61">
+        <v>0.009270448651243234</v>
+      </c>
+      <c r="G61">
+        <v>0.0130560640627456</v>
+      </c>
+      <c r="H61">
+        <v>-0.06588988395521635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1208908178799623</v>
+        <v>-0.1402956007340425</v>
       </c>
       <c r="C62">
-        <v>-0.08020342150912223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05202744418672755</v>
+      </c>
+      <c r="D62">
+        <v>-0.02403164804696102</v>
+      </c>
+      <c r="E62">
+        <v>-0.05440639622707157</v>
+      </c>
+      <c r="F62">
+        <v>0.009204420370514235</v>
+      </c>
+      <c r="G62">
+        <v>-0.02763886082692875</v>
+      </c>
+      <c r="H62">
+        <v>-0.1576494044222943</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05157171199067189</v>
+        <v>-0.05143764436868856</v>
       </c>
       <c r="C63">
-        <v>-0.03159427520454069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01575683046203243</v>
+      </c>
+      <c r="D63">
+        <v>-0.02663683738084035</v>
+      </c>
+      <c r="E63">
+        <v>0.04892819776973242</v>
+      </c>
+      <c r="F63">
+        <v>0.005445511885488803</v>
+      </c>
+      <c r="G63">
+        <v>-0.03525201686240443</v>
+      </c>
+      <c r="H63">
+        <v>-0.08341627662373684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1053478421236859</v>
+        <v>-0.1114905611011565</v>
       </c>
       <c r="C64">
-        <v>-0.0436902475082978</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01471192748663764</v>
+      </c>
+      <c r="D64">
+        <v>-0.04930725685861855</v>
+      </c>
+      <c r="E64">
+        <v>0.02414307717102113</v>
+      </c>
+      <c r="F64">
+        <v>0.05073830001482123</v>
+      </c>
+      <c r="G64">
+        <v>-0.02969495373209146</v>
+      </c>
+      <c r="H64">
+        <v>-0.06679529983622974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1126496680404529</v>
+        <v>-0.1266362378923739</v>
       </c>
       <c r="C65">
-        <v>-0.06680479200555842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04005577009713614</v>
+      </c>
+      <c r="D65">
+        <v>-0.003214491357887988</v>
+      </c>
+      <c r="E65">
+        <v>0.003718276882644208</v>
+      </c>
+      <c r="F65">
+        <v>0.06771987413879108</v>
+      </c>
+      <c r="G65">
+        <v>-0.03838421828231883</v>
+      </c>
+      <c r="H65">
+        <v>0.08849988543364309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1345204604110517</v>
+        <v>-0.1537937661678698</v>
       </c>
       <c r="C66">
-        <v>-0.09160452113519518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05473213267109048</v>
+      </c>
+      <c r="D66">
+        <v>-0.1131162314911865</v>
+      </c>
+      <c r="E66">
+        <v>-0.05163162174476586</v>
+      </c>
+      <c r="F66">
+        <v>0.02555286670906684</v>
+      </c>
+      <c r="G66">
+        <v>-0.01942263382637865</v>
+      </c>
+      <c r="H66">
+        <v>-0.1159570831206305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07000674006919907</v>
+        <v>-0.07821628535475274</v>
       </c>
       <c r="C67">
-        <v>-0.02110801663556947</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.006817158683547372</v>
+      </c>
+      <c r="D67">
+        <v>-0.02971496744035829</v>
+      </c>
+      <c r="E67">
+        <v>0.0277383026672982</v>
+      </c>
+      <c r="F67">
+        <v>0.01502732983214952</v>
+      </c>
+      <c r="G67">
+        <v>0.003897327806208559</v>
+      </c>
+      <c r="H67">
+        <v>-0.02712383624929552</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05802936408154636</v>
+        <v>-0.06567333006927453</v>
       </c>
       <c r="C68">
-        <v>-0.04701308361586021</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.04230183399650052</v>
+      </c>
+      <c r="D68">
+        <v>0.2651933745518808</v>
+      </c>
+      <c r="E68">
+        <v>0.05079497685961647</v>
+      </c>
+      <c r="F68">
+        <v>0.01245708591122433</v>
+      </c>
+      <c r="G68">
+        <v>0.0132437088938097</v>
+      </c>
+      <c r="H68">
+        <v>-0.02248698463681957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.04903587735894999</v>
+        <v>-0.04812006073829051</v>
       </c>
       <c r="C69">
-        <v>-0.02319347433336963</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.007152237354998424</v>
+      </c>
+      <c r="D69">
+        <v>-0.01998976264095036</v>
+      </c>
+      <c r="E69">
+        <v>0.02460397943235521</v>
+      </c>
+      <c r="F69">
+        <v>-0.003985334538897728</v>
+      </c>
+      <c r="G69">
+        <v>0.009875165483738473</v>
+      </c>
+      <c r="H69">
+        <v>-0.06378030045421586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005205591371303733</v>
+        <v>-0.02157944093957975</v>
       </c>
       <c r="C70">
-        <v>0.00319123721503825</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0001775190383525956</v>
+      </c>
+      <c r="D70">
+        <v>4.372624692125574e-05</v>
+      </c>
+      <c r="E70">
+        <v>-0.02651498379338264</v>
+      </c>
+      <c r="F70">
+        <v>0.01935323763874853</v>
+      </c>
+      <c r="G70">
+        <v>0.01661296758457497</v>
+      </c>
+      <c r="H70">
+        <v>0.05566743442453993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06080105820240798</v>
+        <v>-0.07019203645904673</v>
       </c>
       <c r="C71">
-        <v>-0.04331922320740244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03985803908949475</v>
+      </c>
+      <c r="D71">
+        <v>0.2950655270718792</v>
+      </c>
+      <c r="E71">
+        <v>0.04812962188762007</v>
+      </c>
+      <c r="F71">
+        <v>0.0422608730566259</v>
+      </c>
+      <c r="G71">
+        <v>0.00563708900866692</v>
+      </c>
+      <c r="H71">
+        <v>-0.01423605219055163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1337390209012739</v>
+        <v>-0.1535454332738944</v>
       </c>
       <c r="C72">
-        <v>-0.07144096662279296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.040926101896708</v>
+      </c>
+      <c r="D72">
+        <v>0.001545336017663301</v>
+      </c>
+      <c r="E72">
+        <v>-0.09271763389494483</v>
+      </c>
+      <c r="F72">
+        <v>-0.1644627678041647</v>
+      </c>
+      <c r="G72">
+        <v>-0.1077939482300662</v>
+      </c>
+      <c r="H72">
+        <v>-0.01289452743562429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2482239534517094</v>
+        <v>-0.2785461597525641</v>
       </c>
       <c r="C73">
-        <v>-0.1453112991309392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.07784263960056564</v>
+      </c>
+      <c r="D73">
+        <v>-0.08352086230856255</v>
+      </c>
+      <c r="E73">
+        <v>-0.1865314905922114</v>
+      </c>
+      <c r="F73">
+        <v>0.08417679551638729</v>
+      </c>
+      <c r="G73">
+        <v>0.18121245788881</v>
+      </c>
+      <c r="H73">
+        <v>0.5532705009832818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07238261238755357</v>
+        <v>-0.08885519334937847</v>
       </c>
       <c r="C74">
-        <v>-0.08356796458185169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06237652727313961</v>
+      </c>
+      <c r="D74">
+        <v>-0.02684428159044182</v>
+      </c>
+      <c r="E74">
+        <v>-0.005469596564594373</v>
+      </c>
+      <c r="F74">
+        <v>-0.01197121132554962</v>
+      </c>
+      <c r="G74">
+        <v>0.03745083419795125</v>
+      </c>
+      <c r="H74">
+        <v>-0.1281904864803094</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09116969179979149</v>
+        <v>-0.101965741744607</v>
       </c>
       <c r="C75">
-        <v>-0.05979875829737903</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.03129655667921283</v>
+      </c>
+      <c r="D75">
+        <v>-0.009195504163793899</v>
+      </c>
+      <c r="E75">
+        <v>0.001252044386777847</v>
+      </c>
+      <c r="F75">
+        <v>0.043206624599777</v>
+      </c>
+      <c r="G75">
+        <v>0.01821046251703003</v>
+      </c>
+      <c r="H75">
+        <v>-0.1250776354308855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1177931014230185</v>
+        <v>-0.1354509754400257</v>
       </c>
       <c r="C76">
-        <v>-0.09911481154937704</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06709956520616685</v>
+      </c>
+      <c r="D76">
+        <v>-0.05070726069432407</v>
+      </c>
+      <c r="E76">
+        <v>0.0144894014440488</v>
+      </c>
+      <c r="F76">
+        <v>0.05593849523589248</v>
+      </c>
+      <c r="G76">
+        <v>0.007537037507273284</v>
+      </c>
+      <c r="H76">
+        <v>-0.1655494133197299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1167616115783842</v>
+        <v>-0.1143259765460381</v>
       </c>
       <c r="C77">
-        <v>-0.05204452298445574</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.01449038158864175</v>
+      </c>
+      <c r="D77">
+        <v>-0.02497396030114679</v>
+      </c>
+      <c r="E77">
+        <v>-0.01859089792907659</v>
+      </c>
+      <c r="F77">
+        <v>0.2102716556687469</v>
+      </c>
+      <c r="G77">
+        <v>-0.8900086085752444</v>
+      </c>
+      <c r="H77">
+        <v>0.1375551722121975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09013600663406293</v>
+        <v>-0.1226619610151754</v>
       </c>
       <c r="C78">
-        <v>-0.0497193249976353</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.0356518243860895</v>
+      </c>
+      <c r="D78">
+        <v>-0.09121149429333626</v>
+      </c>
+      <c r="E78">
+        <v>0.05980492743467822</v>
+      </c>
+      <c r="F78">
+        <v>0.02212987273292851</v>
+      </c>
+      <c r="G78">
+        <v>-0.04087728706023673</v>
+      </c>
+      <c r="H78">
+        <v>0.1035760700131131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1370326269404274</v>
+        <v>-0.1497855757698614</v>
       </c>
       <c r="C79">
-        <v>-0.0998936668324953</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.05799176588606957</v>
+      </c>
+      <c r="D79">
+        <v>-0.02868532755306879</v>
+      </c>
+      <c r="E79">
+        <v>-0.02388758876446009</v>
+      </c>
+      <c r="F79">
+        <v>0.01248019636155654</v>
+      </c>
+      <c r="G79">
+        <v>0.02089539459817268</v>
+      </c>
+      <c r="H79">
+        <v>-0.1578486556669434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04093442152224325</v>
+        <v>-0.04133734244269664</v>
       </c>
       <c r="C80">
-        <v>-0.01897738669106756</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.006982746933819799</v>
+      </c>
+      <c r="D80">
+        <v>-0.02529088396181208</v>
+      </c>
+      <c r="E80">
+        <v>-0.003916204186253887</v>
+      </c>
+      <c r="F80">
+        <v>-0.0155848597863759</v>
+      </c>
+      <c r="G80">
+        <v>0.03805325898964009</v>
+      </c>
+      <c r="H80">
+        <v>-0.04234196301604792</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1126708884398314</v>
+        <v>-0.1202671278511855</v>
       </c>
       <c r="C81">
-        <v>-0.07220071549049213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03818032952190126</v>
+      </c>
+      <c r="D81">
+        <v>-0.02847346041561942</v>
+      </c>
+      <c r="E81">
+        <v>-0.001200433798683582</v>
+      </c>
+      <c r="F81">
+        <v>0.02262401967096569</v>
+      </c>
+      <c r="G81">
+        <v>0.056158839677521</v>
+      </c>
+      <c r="H81">
+        <v>-0.1811458341353706</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1194488941022801</v>
+        <v>-0.1290866877852591</v>
       </c>
       <c r="C82">
-        <v>-0.08709917940827736</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.05340100662862837</v>
+      </c>
+      <c r="D82">
+        <v>-0.03114585712449712</v>
+      </c>
+      <c r="E82">
+        <v>-0.01665887756735442</v>
+      </c>
+      <c r="F82">
+        <v>0.05472983420755617</v>
+      </c>
+      <c r="G82">
+        <v>0.0543805697161202</v>
+      </c>
+      <c r="H82">
+        <v>-0.1742310532343658</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07588699100812318</v>
+        <v>-0.07956982225662024</v>
       </c>
       <c r="C83">
-        <v>-0.01069033105239244</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0103445667184691</v>
+      </c>
+      <c r="D83">
+        <v>-0.04221164429708094</v>
+      </c>
+      <c r="E83">
+        <v>0.0117186021230515</v>
+      </c>
+      <c r="F83">
+        <v>0.04664321049078266</v>
+      </c>
+      <c r="G83">
+        <v>0.0806384534713069</v>
+      </c>
+      <c r="H83">
+        <v>0.05663501712169661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02548007369471513</v>
+        <v>-0.03864070411841303</v>
       </c>
       <c r="C84">
-        <v>-0.02557051908353901</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02224944801483745</v>
+      </c>
+      <c r="D84">
+        <v>-0.036388583632363</v>
+      </c>
+      <c r="E84">
+        <v>0.02292235347428979</v>
+      </c>
+      <c r="F84">
+        <v>-0.04993105419145638</v>
+      </c>
+      <c r="G84">
+        <v>0.06272754914924507</v>
+      </c>
+      <c r="H84">
+        <v>-0.01924852966252358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1142017593987469</v>
+        <v>-0.1183306740918653</v>
       </c>
       <c r="C85">
-        <v>-0.06769720086266376</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.0324682832326022</v>
+      </c>
+      <c r="D85">
+        <v>-0.02697909190769655</v>
+      </c>
+      <c r="E85">
+        <v>0.00509124547935619</v>
+      </c>
+      <c r="F85">
+        <v>0.05700892125453216</v>
+      </c>
+      <c r="G85">
+        <v>0.01914886148486016</v>
+      </c>
+      <c r="H85">
+        <v>-0.150746249722521</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0461963261605642</v>
+        <v>-0.0511482291789145</v>
       </c>
       <c r="C86">
-        <v>-0.02449983883890739</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01227470325531321</v>
+      </c>
+      <c r="D86">
+        <v>-0.02362886100676601</v>
+      </c>
+      <c r="E86">
+        <v>0.0570307858957584</v>
+      </c>
+      <c r="F86">
+        <v>0.02416011116083719</v>
+      </c>
+      <c r="G86">
+        <v>0.001412310387172002</v>
+      </c>
+      <c r="H86">
+        <v>-0.01481209636759762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1179857127518179</v>
+        <v>-0.1212472986398401</v>
       </c>
       <c r="C87">
-        <v>-0.07879618281745025</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03836515339458776</v>
+      </c>
+      <c r="D87">
+        <v>-0.07206331128595193</v>
+      </c>
+      <c r="E87">
+        <v>0.01600476168543251</v>
+      </c>
+      <c r="F87">
+        <v>0.01309014002552781</v>
+      </c>
+      <c r="G87">
+        <v>-0.09953075784461587</v>
+      </c>
+      <c r="H87">
+        <v>-0.0006530141151930275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05286699467804799</v>
+        <v>-0.05874588886529331</v>
       </c>
       <c r="C88">
-        <v>-0.03270458848674899</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01881670538714389</v>
+      </c>
+      <c r="D88">
+        <v>-0.02517070050592209</v>
+      </c>
+      <c r="E88">
+        <v>0.01621308430441</v>
+      </c>
+      <c r="F88">
+        <v>0.008379875039388057</v>
+      </c>
+      <c r="G88">
+        <v>-0.008508708740102585</v>
+      </c>
+      <c r="H88">
+        <v>-0.06383212436704409</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08165662052945631</v>
+        <v>-0.1028926293247038</v>
       </c>
       <c r="C89">
-        <v>-0.06728173556845668</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.06458779117253127</v>
+      </c>
+      <c r="D89">
+        <v>0.3294104389100297</v>
+      </c>
+      <c r="E89">
+        <v>0.07896038668880356</v>
+      </c>
+      <c r="F89">
+        <v>0.0747262389399579</v>
+      </c>
+      <c r="G89">
+        <v>0.02049290829482352</v>
+      </c>
+      <c r="H89">
+        <v>0.008269539998912031</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07291517348539926</v>
+        <v>-0.08693890406137723</v>
       </c>
       <c r="C90">
-        <v>-0.05485793962140217</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.05020022628076441</v>
+      </c>
+      <c r="D90">
+        <v>0.3056699003746902</v>
+      </c>
+      <c r="E90">
+        <v>0.06632567158025104</v>
+      </c>
+      <c r="F90">
+        <v>0.001668929336526162</v>
+      </c>
+      <c r="G90">
+        <v>0.005941140638413315</v>
+      </c>
+      <c r="H90">
+        <v>-0.01993042800305323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.0782739603724676</v>
+        <v>-0.08679995692902753</v>
       </c>
       <c r="C91">
-        <v>-0.06354388631409516</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03924160635990095</v>
+      </c>
+      <c r="D91">
+        <v>-0.02608239042632128</v>
+      </c>
+      <c r="E91">
+        <v>0.01494207888594569</v>
+      </c>
+      <c r="F91">
+        <v>0.003159299049108267</v>
+      </c>
+      <c r="G91">
+        <v>0.04790036546545659</v>
+      </c>
+      <c r="H91">
+        <v>-0.08230704968892788</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.08295495815182174</v>
+        <v>-0.09625643393286375</v>
       </c>
       <c r="C92">
-        <v>-0.06849222112105224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06016955431814691</v>
+      </c>
+      <c r="D92">
+        <v>0.345937801298898</v>
+      </c>
+      <c r="E92">
+        <v>0.05669916090139682</v>
+      </c>
+      <c r="F92">
+        <v>0.03594141004069486</v>
+      </c>
+      <c r="G92">
+        <v>-0.002298824625343302</v>
+      </c>
+      <c r="H92">
+        <v>-0.01899431121181905</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06621612909844421</v>
+        <v>-0.08473309869766316</v>
       </c>
       <c r="C93">
-        <v>-0.05974880255882813</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.05872713121021556</v>
+      </c>
+      <c r="D93">
+        <v>0.3049980758379608</v>
+      </c>
+      <c r="E93">
+        <v>0.04023560600490326</v>
+      </c>
+      <c r="F93">
+        <v>0.04767676536873639</v>
+      </c>
+      <c r="G93">
+        <v>-0.00718870375013532</v>
+      </c>
+      <c r="H93">
+        <v>0.007412716342358565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1246792096713413</v>
+        <v>-0.1275969328592874</v>
       </c>
       <c r="C94">
-        <v>-0.07474509904445419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03338214473311325</v>
+      </c>
+      <c r="D94">
+        <v>-0.04869291690081909</v>
+      </c>
+      <c r="E94">
+        <v>-0.02155790175764813</v>
+      </c>
+      <c r="F94">
+        <v>0.02370522818633134</v>
+      </c>
+      <c r="G94">
+        <v>0.04367018942673544</v>
+      </c>
+      <c r="H94">
+        <v>-0.09408240680366145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1149605725086006</v>
+        <v>-0.1248836960772622</v>
       </c>
       <c r="C95">
-        <v>-0.05497882584233214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02142044026330359</v>
+      </c>
+      <c r="D95">
+        <v>-0.06028340857482756</v>
+      </c>
+      <c r="E95">
+        <v>-0.01026472099451247</v>
+      </c>
+      <c r="F95">
+        <v>0.02951506685757951</v>
+      </c>
+      <c r="G95">
+        <v>0.01180299676587664</v>
+      </c>
+      <c r="H95">
+        <v>0.002111598233464618</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2015995309489203</v>
+        <v>-0.2163617831484169</v>
       </c>
       <c r="C97">
-        <v>-0.06572254704636166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01814028498156251</v>
+      </c>
+      <c r="D97">
+        <v>0.06489255998708676</v>
+      </c>
+      <c r="E97">
+        <v>-0.1780369365634694</v>
+      </c>
+      <c r="F97">
+        <v>-0.8963948681126621</v>
+      </c>
+      <c r="G97">
+        <v>-0.1530186156156048</v>
+      </c>
+      <c r="H97">
+        <v>0.002309863636715682</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2397089118517787</v>
+        <v>-0.2688413934037183</v>
       </c>
       <c r="C98">
-        <v>-0.1070811302805363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.04842819062464143</v>
+      </c>
+      <c r="D98">
+        <v>-0.05622525511168792</v>
+      </c>
+      <c r="E98">
+        <v>-0.1569286615358132</v>
+      </c>
+      <c r="F98">
+        <v>0.05253539646734642</v>
+      </c>
+      <c r="G98">
+        <v>0.2702379773469059</v>
+      </c>
+      <c r="H98">
+        <v>0.2027347394713657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.5353386189942889</v>
+        <v>-0.3197305854188928</v>
       </c>
       <c r="C99">
-        <v>0.83333816361647</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9351456825709292</v>
+      </c>
+      <c r="D99">
+        <v>0.06247479270280165</v>
+      </c>
+      <c r="E99">
+        <v>0.04326629385757939</v>
+      </c>
+      <c r="F99">
+        <v>0.04461218630583155</v>
+      </c>
+      <c r="G99">
+        <v>0.01353678172687626</v>
+      </c>
+      <c r="H99">
+        <v>-0.04447456060605402</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03860166315587361</v>
+        <v>-0.04698068846849558</v>
       </c>
       <c r="C101">
-        <v>-0.03174549540389061</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02332261315220593</v>
+      </c>
+      <c r="D101">
+        <v>-0.009969002490049891</v>
+      </c>
+      <c r="E101">
+        <v>0.04219340277478215</v>
+      </c>
+      <c r="F101">
+        <v>0.008781345367919661</v>
+      </c>
+      <c r="G101">
+        <v>0.01101333471837504</v>
+      </c>
+      <c r="H101">
+        <v>-0.08855922298537992</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
